--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Block Bootstrapping_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Block Bootstrapping_General.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>2.468373163546003</v>
+        <v>4.450756068883417</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>3.163775868438677</v>
+        <v>4.182438981654339</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>3.453850846367811</v>
+        <v>4.40921118037155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>2.955455533854199</v>
+        <v>4.5231808073141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>3.108082487074975</v>
+        <v>3.840829591153802</v>
       </c>
     </row>
   </sheetData>
